--- a/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T01:43:56+00:00</t>
+    <t>2023-10-30T03:01:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T03:01:55+00:00</t>
+    <t>2023-10-30T05:20:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/kohe-forTestingTerminology/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T05:20:07+00:00</t>
+    <t>2023-10-30T23:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
